--- a/biology/Médecine/Lihadh_Al-Gazali/Lihadh_Al-Gazali.xlsx
+++ b/biology/Médecine/Lihadh_Al-Gazali/Lihadh_Al-Gazali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lihadh Al-Gazali est une généticienne irakienne[1]. Elle travaille au département de pédiatrie de l’université des Émirats arabes unis à 
-al-Aïn[2]. Ses recherches concernent la caractérisation de troubles héréditaires dans la population des Émirats arabes unis qui présente notamment un taux élevé de mariages consanguins. Sa contribution a permis de démontrer l’importance d’une consultation génétique pour la prévention de ces troubles[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lihadh Al-Gazali est une généticienne irakienne. Elle travaille au département de pédiatrie de l’université des Émirats arabes unis à 
+al-Aïn. Ses recherches concernent la caractérisation de troubles héréditaires dans la population des Émirats arabes unis qui présente notamment un taux élevé de mariages consanguins. Sa contribution a permis de démontrer l’importance d’une consultation génétique pour la prévention de ces troubles.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2008, elle reçoit le Prix L'Oréal-Unesco pour les femmes et la science « Pour ses contributions à la caractérisation de troubles héréditaires »[4],[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 2008, elle reçoit le Prix L'Oréal-Unesco pour les femmes et la science « Pour ses contributions à la caractérisation de troubles héréditaires »,.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sevjidmaa Baasanjav, Lihadh Al-Gazali et al., « Faulty Initiation of Proteoglycan Synthesis Causes Cardiac and Joint Defects », The American Journal of Human Genetics, vol. 89, no 1,‎ juillet 2011, p. 15–27 (PMID 21763480, PMCID 3135799, DOI 10.1016/j.ajhg.2011.05.021)
 NA Akawi, L Al-Gazali et BR Ali, « Clinical and molecular analysis of UAE fibrochondrogenesis patients expands the phenotype and reveals two COL11A1 homozygous null mutations », Clinical Genetics, vol. 82, no 2,‎ août 2012, p. 147–156 (PMID 21668896, DOI 10.1111/j.1399-0004.2011.01734.x)
@@ -575,9 +591,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est mariée avec Wessam Shather, un neurochirurgien avec lequel elle a 3 enfants[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est mariée avec Wessam Shather, un neurochirurgien avec lequel elle a 3 enfants.
 </t>
         </is>
       </c>
